--- a/biology/Botanique/Centritractaceae/Centritractaceae.xlsx
+++ b/biology/Botanique/Centritractaceae/Centritractaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Centritractaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Xanthophyceae et de l’ordre des Mischococcales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Centritractus, dérivé du  grec  χέντρον / chéntron, aiguillon, et άτραχτος / átrachtos, broche, en référence à la forme de cet organisme[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Centritractus, dérivé du  grec  χέντρον / chéntron, aiguillon, et άτραχτος / átrachtos, broche, en référence à la forme de cet organisme.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,14 +612,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après World Register of Marine Species                               (31 mars 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après World Register of Marine Species                               (31 mars 2022) :
 Bumilleriopsis Printz, 1914
-Centritractus Lemmermann, 1900  genre type[note 1],[2]
+Centritractus Lemmermann, 1900  genre type[note 1],
 Pseudotetraëdron Pascher, 1912
 Pseudobumilleriopsis T.R.Deason &amp; Bold, 1960   synonyme de Bumilleriopsis
-AlgaeBase                                           (31 mars 2022)[1] classe les genres de cette famille dans celle des Sciadiaceae.
+AlgaeBase                                           (31 mars 2022) classe les genres de cette famille dans celle des Sciadiaceae.
 </t>
         </is>
       </c>
